--- a/InputFiles/CCDI/TC03_CCDI_DataValidation_phs003111.xlsx
+++ b/InputFiles/CCDI/TC03_CCDI_DataValidation_phs003111.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\qa-data-validation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932F5883-122D-4E23-8FBE-18663A21B5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E933B0E-0E06-49DA-985A-2B6BDC729670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -83,25 +83,6 @@
 coalesce(p.ethnicity, '') AS `Ethnicity` ,
 coalesce(p.alternate_participant_id, '') AS `Alternate ID`
 Order by p.participant_id Limit 100</t>
-  </si>
-  <si>
-    <t>Match (s:study)&lt;--(p:participant)&lt;--(d:diagnosis)
-where p.participant_id IN ['InptVlue']
-OPTIONAL MATCH(fo:follow_up)--&gt;(p)
-with distinct d, p, s, fo
-return
-coalesce(p.participant_id, '') as `Participant ID`,
-coalesce(s.phs_accession, '') as `Study ID`,
-coalesce(d.diagnosis_classification, '') as `Diagnosis`,
-coalesce(d.diagnosis_classification_system, '') as `Diagnosis Classification System`,
-coalesce(d.diagnosis_verification_status, '') as `Diagnosis Verification Status`,
-coalesce(d.diagnosis_basis, '') as `Diagnosis Basis`,
-coalesce(d.diagnosis_comment, '') as `Diagnosis Comment`,
-coalesce(d.disease_phase, '') as `Disease Phase`,
-coalesce(d.anatomic_site, '') as `Anatomic Site`,
-case d.age_at_diagnosis when -999 then 'Not Reported' else coalesce(d.age_at_diagnosis, '') end as `Age at Diagnosis (days)`,
-coalesce(fo.vital_status, '') as `Vital Status`
-Order by p.participant_id limit 100</t>
   </si>
   <si>
     <t>MATCH (st:study)&lt;-[:of_participant]-(p:participant)
@@ -147,33 +128,6 @@
   apoc.text.join(COLLECT(DISTINCT pub.pubmed_id), ';') as `PubMed ID`,
   apoc.text.join(COLLECT(DISTINCT stp.personnel_name), ';') as `Principal Investigator(s)`,
   apoc.text.join(COLLECT(DISTINCT stf.grant_id), ';') as `Grant ID`</t>
-  </si>
-  <si>
-    <t>CALL {
-  MATCH (st:study)&lt;-[:of_participant|of_cell_line|of_pdx]-(pcp)&lt;-[:of_sample]-(sm:sample)
-  WHERE (pcp:participant or pcp:cell_line or pcp:pdx) and pcp.participant_id IN ['InptVlue']
-  return st, case labels(pcp)[0] when "participant" then pcp.participant_id else "" end as participant_id, sm
-  union all
-  MATCH (st:study)&lt;-[:of_participant]-(p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;--(cp)&lt;--(sm2:sample)
-  WHERE (cp:cell_line or cp:pdx) and p.participant_id IN ['InptVlue']
-  with st, p.participant_id as participant_id, [sm1,sm2] as sampleArr
-  unwind sampleArr as sm
-  return st, participant_id, sm
-}
-RETURN DISTINCT
-          sm.sample_id as `Sample ID`,
-          participant_id as `Participant ID`,
-          st.study_id as `Study ID`,
-          sm.anatomic_site as `Anatomic Site`,
-          case sm.participant_age_at_collection when -999 then 'Not Reported' else coalesce(sm.participant_age_at_collection, '') end as `Age at Sample Collection`,
-          coalesce(sm.diagnosis_classification, '') as `Diagnosis`,
-          coalesce(sm.diagnosis_classification_system, '') as `Diagnosis Classification System`,
-          coalesce(sm.diagnosis_verification_status, '') as `Diagnosis Verification Status`,
-          coalesce(sm.diagnosis_basis, '') as `Diagnosis Basis`,
-          coalesce(sm.diagnosis_comment, '') as `Diagnosis Comment`,
-          sm.sample_tumor_status as `Sample Tumor Status`,
-          sm.tumor_classification as `Sample Tumor Classification`
-Order by sm.sample_id Limit 100</t>
   </si>
   <si>
     <t xml:space="preserve">CALL {
@@ -406,6 +360,52 @@
 guid As `GUID`,
 md5sum As `MD5Sum`
 ORDER BY file_name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Match (s:study)&lt;--(p:participant)&lt;--(d:diagnosis)
+where p.participant_id IN ['InptVlue']
+OPTIONAL MATCH(fo:follow_up)--&gt;(p)
+with distinct d, p, s, fo
+return
+coalesce(p.participant_id, '') as `Participant ID`,
+coalesce(s.phs_accession, '') as `Study ID`,
+coalesce(d.diagnosis_classification, '') as `Diagnosis`,
+coalesce(d.diagnosis_classification_system, '') as `Diagnosis Classification System`,
+coalesce(d.diagnosis_verification_status, '') as `Diagnosis Verification Status`,
+coalesce(d.diagnosis_basis, '') as `Diagnosis Basis`,
+coalesce(d.diagnosis_comment, '') as `Diagnosis Comment`,
+coalesce(d.disease_phase, '') as `Disease Phase`,
+coalesce(d.anatomic_site, '') as `Anatomic Site`,
+ coalesce(d.age_at_diagnosis, '')  as `Age at Diagnosis (days)`,
+coalesce(fo.vital_status, '') as `Vital Status`
+Order by p.participant_id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALL {
+  MATCH (st:study)&lt;-[:of_participant|of_cell_line|of_pdx]-(pcp)&lt;-[:of_sample]-(sm:sample)
+  WHERE (pcp:participant or pcp:cell_line or pcp:pdx) and pcp.participant_id IN ['InptVlue']
+  return st, case labels(pcp)[0] when "participant" then pcp.participant_id else "" end as participant_id, sm
+  union all
+  MATCH (st:study)&lt;-[:of_participant]-(p:participant)&lt;-[:of_sample]-(sm1:sample)&lt;--(cp)&lt;--(sm2:sample)
+  WHERE (cp:cell_line or cp:pdx) and p.participant_id IN ['InptVlue']
+  with st, p.participant_id as participant_id, [sm1,sm2] as sampleArr
+  unwind sampleArr as sm
+  return st, participant_id, sm
+}
+RETURN DISTINCT
+          sm.sample_id as `Sample ID`,
+          participant_id as `Participant ID`,
+          st.study_id as `Study ID`,
+          sm.anatomic_site as `Anatomic Site`,
+         coalesce(sm.participant_age_at_collection, '')  as `Age at Sample Collection`,
+          coalesce(sm.diagnosis_classification, '') as `Diagnosis`,
+          coalesce(sm.diagnosis_classification_system, '') as `Diagnosis Classification System`,
+          coalesce(sm.diagnosis_verification_status, '') as `Diagnosis Verification Status`,
+          coalesce(sm.diagnosis_basis, '') as `Diagnosis Basis`,
+          coalesce(sm.diagnosis_comment, '') as `Diagnosis Comment`,
+          sm.sample_tumor_status as `Sample Tumor Status`,
+          sm.tumor_classification as `Sample Tumor Classification`
+Order by sm.sample_id </t>
   </si>
 </sst>
 </file>
@@ -775,10 +775,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -822,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -836,7 +837,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -845,12 +846,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="377" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -864,7 +865,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -882,6 +883,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D94671-34CB-46BD-8964-4DC9A3E8B07A}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
